--- a/public/factory.xlsx
+++ b/public/factory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="one-off valve" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="670">
   <si>
     <t>Control Valve</t>
   </si>
@@ -233,6 +233,1810 @@
   </si>
   <si>
     <t>ZS-A33B</t>
+  </si>
+  <si>
+    <t>HV-AE05</t>
+  </si>
+  <si>
+    <t>طبقه 4 تراز 26 متر شرق کوره کنار پمپ های E17</t>
+  </si>
+  <si>
+    <t>درین اسکرابر تاپ</t>
+  </si>
+  <si>
+    <t>TOP GAS SCRUBBER(SR-A45) OUTLET TO SIGHT DRAIN</t>
+  </si>
+  <si>
+    <t>250-SL-00418-C7</t>
+  </si>
+  <si>
+    <t>Knife Gate</t>
+  </si>
+  <si>
+    <t>A216 Gr.B</t>
+  </si>
+  <si>
+    <t>10"</t>
+  </si>
+  <si>
+    <t>Wafer,ANSI 150</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>HV-AE38</t>
+  </si>
+  <si>
+    <t>نیم طبقه بین طبقه 2 و 3 ، شمال کوره</t>
+  </si>
+  <si>
+    <t>درین اسکرابر کولینگ</t>
+  </si>
+  <si>
+    <t>Cooling Gas Scrubber Drain Slurry</t>
+  </si>
+  <si>
+    <t>250-SL-06107-C7</t>
+  </si>
+  <si>
+    <t>SOV-AA57</t>
+  </si>
+  <si>
+    <t>طبقه 3 شمال یونیت هیدرولیک</t>
+  </si>
+  <si>
+    <t>گاز سیل خشک به  گاز نچرال ورودی به کوره TNG</t>
+  </si>
+  <si>
+    <t>Dry Seal Gas to Furn.Natu. Gas Inj. Line</t>
+  </si>
+  <si>
+    <t>80-SG-06906-C6</t>
+  </si>
+  <si>
+    <t>3"</t>
+  </si>
+  <si>
+    <t>ZS-A57A,ZS-A57B</t>
+  </si>
+  <si>
+    <t>SOV-AA78</t>
+  </si>
+  <si>
+    <t>گاز نچرال به ناحیه انتقالی TNG</t>
+  </si>
+  <si>
+    <t>Furnace Natural Gas Injection Line</t>
+  </si>
+  <si>
+    <t>350-NG-01912-C11</t>
+  </si>
+  <si>
+    <t>14"</t>
+  </si>
+  <si>
+    <t>ZS-A78A,ZS-A78B</t>
+  </si>
+  <si>
+    <t>SOV-AA86.1</t>
+  </si>
+  <si>
+    <t>شمال پایپرک شرق استک</t>
+  </si>
+  <si>
+    <t>توزیع گاز نچرال</t>
+  </si>
+  <si>
+    <t>Natural Gas Distribution</t>
+  </si>
+  <si>
+    <t>400-NG-02813-C6</t>
+  </si>
+  <si>
+    <t>A105N (VTC)</t>
+  </si>
+  <si>
+    <t>16"</t>
+  </si>
+  <si>
+    <t>ZS-A86.1A/B</t>
+  </si>
+  <si>
+    <t>SOV-AA86.2</t>
+  </si>
+  <si>
+    <t>ونت گاز نچرال</t>
+  </si>
+  <si>
+    <t>Natural Gas to Vent</t>
+  </si>
+  <si>
+    <t>80-NG-02816-C6</t>
+  </si>
+  <si>
+    <t>SOV-AA86.3</t>
+  </si>
+  <si>
+    <t>SOV-AA86.4</t>
+  </si>
+  <si>
+    <t>بای‌پس گاز نچرال</t>
+  </si>
+  <si>
+    <t>Natural Gas Bypass</t>
+  </si>
+  <si>
+    <t>15-NG-02817-C6</t>
+  </si>
+  <si>
+    <t>1/2"</t>
+  </si>
+  <si>
+    <t>SOV-AB18.1</t>
+  </si>
+  <si>
+    <t>ولو اصلی گاز نچرال به میکسر گاز فیول</t>
+  </si>
+  <si>
+    <t>Natural Gas Main Valve to Top Gas Fuel Mixer</t>
+  </si>
+  <si>
+    <t>300-NG-02812-C6</t>
+  </si>
+  <si>
+    <t>A105N</t>
+  </si>
+  <si>
+    <t>12"</t>
+  </si>
+  <si>
+    <t>ZS-B18.1A/B</t>
+  </si>
+  <si>
+    <t>SOV-AB18.2</t>
+  </si>
+  <si>
+    <t>ولو ونت گاز نچرال به میکسر گاز فیول</t>
+  </si>
+  <si>
+    <t>N.G. Vent Valve to Top Gas Fuel Mixer</t>
+  </si>
+  <si>
+    <t>80-NG-03309-C6</t>
+  </si>
+  <si>
+    <t>ZS-B18.2A/B</t>
+  </si>
+  <si>
+    <t>SOV-AB18.3</t>
+  </si>
+  <si>
+    <t>بلاک ولو گاز نچرال به میکسر گاز سوخت از گاز بالایی</t>
+  </si>
+  <si>
+    <t>N.G. Block Valve to Top Gas Fuel Mixer</t>
+  </si>
+  <si>
+    <t>ZS-B18.3A/B</t>
+  </si>
+  <si>
+    <t>SOV-AB18.4</t>
+  </si>
+  <si>
+    <t>ولو توزیع کننده گاز نچرال به میکسر گاز فیول</t>
+  </si>
+  <si>
+    <t>Start Up N.G. Valve to Top Gas Fuel Mixer</t>
+  </si>
+  <si>
+    <t>15-NG-03308-C6</t>
+  </si>
+  <si>
+    <t>ZS-B18.4A/B</t>
+  </si>
+  <si>
+    <t>SOV-AB26.1</t>
+  </si>
+  <si>
+    <t>ولو اصلی گاز نچرال به مشعل‌های کمکی و افتربرنر گاز آب‌بندی</t>
+  </si>
+  <si>
+    <t>N.G. Main Valve to Aux. Burners and S.G after Burner</t>
+  </si>
+  <si>
+    <t>200-NG-02810-C6</t>
+  </si>
+  <si>
+    <t>ZS-B26.1A/B</t>
+  </si>
+  <si>
+    <t>SOV-AB26.2</t>
+  </si>
+  <si>
+    <t>ولو ونت گاز نچرال به مشعل‌های کمکی و افتربرنر گاز آب‌بندی</t>
+  </si>
+  <si>
+    <t>N.G. Vent to Aux. Burners and S.G after Burner</t>
+  </si>
+  <si>
+    <t>40-NG-03203-C6</t>
+  </si>
+  <si>
+    <t>1 1/2"</t>
+  </si>
+  <si>
+    <t>ZS-B26.2A/B</t>
+  </si>
+  <si>
+    <t>SOV-AB26.3</t>
+  </si>
+  <si>
+    <t>بلاک ولو گاز نچرال به مشعل‌های کمکی و افتربرنر گاز آب‌بندی</t>
+  </si>
+  <si>
+    <t>N.G. Block Valve to Aux. Burners and S.G after Burner</t>
+  </si>
+  <si>
+    <t>ZS-B26.3A/B</t>
+  </si>
+  <si>
+    <t>SOV-AB26.4</t>
+  </si>
+  <si>
+    <t>ولو راه‌اندازی گاز نچرال به مشعل‌های کمکی</t>
+  </si>
+  <si>
+    <t>Start-up N.G. Valve to Auxiliary Burners</t>
+  </si>
+  <si>
+    <t>15-NG-03201-C6</t>
+  </si>
+  <si>
+    <t>ZS-26.4A/B</t>
+  </si>
+  <si>
+    <t>SOV-AC05.1</t>
+  </si>
+  <si>
+    <t>تخلیه دمنده هوای دایلوشن</t>
+  </si>
+  <si>
+    <t>Dilution Air Blower Discharge</t>
+  </si>
+  <si>
+    <t>900-DA-03015-C4</t>
+  </si>
+  <si>
+    <t>36"</t>
+  </si>
+  <si>
+    <t>ZS-C05.1A/B</t>
+  </si>
+  <si>
+    <t>SOV-AC05.2</t>
+  </si>
+  <si>
+    <t>هوای دایلوشن از دمنده هوای اصلی</t>
+  </si>
+  <si>
+    <t>Dilution Air from Main Air Blower</t>
+  </si>
+  <si>
+    <t>900-CA-03013-C4</t>
+  </si>
+  <si>
+    <t>ZS-C05.2A/B</t>
+  </si>
+  <si>
+    <t>SOV-AD34</t>
+  </si>
+  <si>
+    <t>توزیع گاز Purge</t>
+  </si>
+  <si>
+    <t>Purge Gas Distribution</t>
+  </si>
+  <si>
+    <t>SOV-AD74</t>
+  </si>
+  <si>
+    <t>گاز نچرال به افتربرنر گاز سیل (After Burner)</t>
+  </si>
+  <si>
+    <t>After Burner Natural Gas</t>
+  </si>
+  <si>
+    <t>150-NG-03202-C6</t>
+  </si>
+  <si>
+    <t>6"</t>
+  </si>
+  <si>
+    <t>ZS-D74A/B</t>
+  </si>
+  <si>
+    <t>SOV-AD77</t>
+  </si>
+  <si>
+    <t>طبقه 2 غرب نم گیر کولینگ</t>
+  </si>
+  <si>
+    <t>گاز آب‌بندی خشک از درایر گاز آب‌بندی</t>
+  </si>
+  <si>
+    <t>Dry Seal Gas FROM SEAL GAS DRYER</t>
+  </si>
+  <si>
+    <t>80-SG-06913-C6</t>
+  </si>
+  <si>
+    <t>SOV-AD81</t>
+  </si>
+  <si>
+    <t>غرب کمپرسور پروسس 57</t>
+  </si>
+  <si>
+    <t>گاز آب‌بندی خشک</t>
+  </si>
+  <si>
+    <t>DRY SEAL GAS</t>
+  </si>
+  <si>
+    <t>100-SG-06919-C6</t>
+  </si>
+  <si>
+    <t>SOV-AD82</t>
+  </si>
+  <si>
+    <t>062-2</t>
+  </si>
+  <si>
+    <t>25-SG-06920-C6</t>
+  </si>
+  <si>
+    <t>SOV-AE11</t>
+  </si>
+  <si>
+    <t>از PUE-08 به فلاشینگ شارژ هاپر (pws)</t>
+  </si>
+  <si>
+    <t>FROM PUE-08 TO FURNACE CHRGE HOPPER</t>
+  </si>
+  <si>
+    <t>40-PWS-00101-C1</t>
+  </si>
+  <si>
+    <t>SOV-AE53</t>
+  </si>
+  <si>
+    <t>واحد آب جبرانی  به TK-E42</t>
+  </si>
+  <si>
+    <t>MAKE UP WATER UNIT TO TK-E42</t>
+  </si>
+  <si>
+    <t>083-1</t>
+  </si>
+  <si>
+    <t>200-SW-93134-C1</t>
+  </si>
+  <si>
+    <t>ZS-E53A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE70.1</t>
+  </si>
+  <si>
+    <t>از پمپ  PU-AE33.1 به SETTLING POND</t>
+  </si>
+  <si>
+    <t>WATER RETURN TO SETTLING BED</t>
+  </si>
+  <si>
+    <t>100-SL-08107-C7</t>
+  </si>
+  <si>
+    <t>ZS-E70.1A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE70.2</t>
+  </si>
+  <si>
+    <t>از پمپ  PU-AE33.2 به SETTLING POND</t>
+  </si>
+  <si>
+    <t>100-SL-08106-C7</t>
+  </si>
+  <si>
+    <t>ZS-E70.2A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE70.3</t>
+  </si>
+  <si>
+    <t>از پمپ  PU-AE33.3 به SETTLING POND</t>
+  </si>
+  <si>
+    <t>100-SL-08105-C7</t>
+  </si>
+  <si>
+    <t>Wafer, ANSI 150</t>
+  </si>
+  <si>
+    <t>ZS-E70.3A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE71.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به فلاشینگ خروجی پمپ  PU-AE33.1 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>COLD PROCESS WATER SUPPLY</t>
+  </si>
+  <si>
+    <t>80-PWS-08112-C1</t>
+  </si>
+  <si>
+    <t>spring piston</t>
+  </si>
+  <si>
+    <t>ZS-E71.1A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE71.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به فلاشینگ خروجی پمپ  PU-AE33.2 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>80-PWS-08110-C1</t>
+  </si>
+  <si>
+    <t>ZS-E71.2A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE71.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به فلاشینگ خروجی پمپ  PU-AE33.3 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>80-PWS-08108-C1</t>
+  </si>
+  <si>
+    <t>ZS-E71.3A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE72.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب برگشتی به کلاریفایر از لاین خروجی  پمپ  PU-AE33.1 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>COLD PROCESS WATER RETURN</t>
+  </si>
+  <si>
+    <t>SOV-AE72.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب برگشتی به کلاریفایر از لاین خروجی  پمپ  PU-AE33.2 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>SOV-AE72.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب برگشتی به کلاریفایر از لاین خروجی  پمپ  PU-AE33.3 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>Flanged, ANSI 151</t>
+  </si>
+  <si>
+    <t>SOV-AE73.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به لاین خروجی از پمپ  PU-AE33.1 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>COLD PROCESS WATER BACK</t>
+  </si>
+  <si>
+    <t>80-PWS-08140-C1</t>
+  </si>
+  <si>
+    <t>SOV-AE73.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به لاین خروجی از پمپ  PU-AE33.2 به SETTLING POND </t>
+  </si>
+  <si>
+    <t>80-PWS-08141-C1</t>
+  </si>
+  <si>
+    <t>SOV-AE73.3</t>
+  </si>
+  <si>
+    <t>آب پروسس سرد به لاین خروجی  از پمپ  PU-AE33.3 به SETTLING POND</t>
+  </si>
+  <si>
+    <t>80-PWS-08139-C1</t>
+  </si>
+  <si>
+    <t>Flanged, ANSI 152</t>
+  </si>
+  <si>
+    <t>SOV-AE74.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به فلاشینگ ورودی پمپ  PU-AE33.1 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>40-PWS-08142-C1</t>
+  </si>
+  <si>
+    <t>SOV-AE74.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به فلاشینگ ورودی پمپ  PU-AE33.2 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>40-PWS-08143-C1</t>
+  </si>
+  <si>
+    <t>SOV-AE74.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب پروسس سرد به فلاشینگ ورودی پمپ  PU-AE33.3 به SETTLING POND  </t>
+  </si>
+  <si>
+    <t>40-PWS-08144-C1</t>
+  </si>
+  <si>
+    <t>SOV-AE98</t>
+  </si>
+  <si>
+    <t>ورودی تانک آب خنک‌کن ماشین‌آلات (TK-M70)</t>
+  </si>
+  <si>
+    <t>MACHINERY COOLING WATER TANK TK-M70 INLET</t>
+  </si>
+  <si>
+    <t>100-SW-93164-C1</t>
+  </si>
+  <si>
+    <t>ZS-E98A/B</t>
+  </si>
+  <si>
+    <t>SOV-AE99</t>
+  </si>
+  <si>
+    <t>واحد آب جبرانی (Make-up Water Unit) به TK-E43</t>
+  </si>
+  <si>
+    <t>MAKE UP WATER UNIT TO TK-E43</t>
+  </si>
+  <si>
+    <t>83-2</t>
+  </si>
+  <si>
+    <t>100-SW-08333-C1</t>
+  </si>
+  <si>
+    <t>ZS-E99A/B</t>
+  </si>
+  <si>
+    <t>SOV-AH28</t>
+  </si>
+  <si>
+    <t>اسکرابر جمع‌آوری گرد و غبار(داست کالکشن)  کولینگ</t>
+  </si>
+  <si>
+    <t>PRODUCT COOLER DUST COLLECTION SCRUBBER</t>
+  </si>
+  <si>
+    <t>700-DP-05505-C10</t>
+  </si>
+  <si>
+    <t>28"</t>
+  </si>
+  <si>
+    <t>Flangged, ANSI 150</t>
+  </si>
+  <si>
+    <t>ZS-H28.A/B</t>
+  </si>
+  <si>
+    <t>SOV-AH53</t>
+  </si>
+  <si>
+    <t>داست کالکشن</t>
+  </si>
+  <si>
+    <t>DUST COLLECTION</t>
+  </si>
+  <si>
+    <t>600-DP-05506-C10</t>
+  </si>
+  <si>
+    <t>24"</t>
+  </si>
+  <si>
+    <t>ZS-H53.A/B</t>
+  </si>
+  <si>
+    <t>SOV-GG46</t>
+  </si>
+  <si>
+    <t>ورودی فیلتر ورودی گاز نچرال</t>
+  </si>
+  <si>
+    <t>Natural Gas Inlet Filter Inlet</t>
+  </si>
+  <si>
+    <t>400-NG-02705-C6</t>
+  </si>
+  <si>
+    <t>Flange ANSI RF #150</t>
+  </si>
+  <si>
+    <t>ZS-G46A/B , ASME B16.5-150#-RF</t>
+  </si>
+  <si>
+    <t>SOV-GG47.1</t>
+  </si>
+  <si>
+    <t>فیلتر ورودی گاز نچرال SR-G11.1</t>
+  </si>
+  <si>
+    <t>Natural Gas Inlet Filter SR-G11.1</t>
+  </si>
+  <si>
+    <t>ZS-G47.1A/B , ASME B16.5-150#-RF</t>
+  </si>
+  <si>
+    <t>SOV-GG47.2</t>
+  </si>
+  <si>
+    <t>ZS-G47.2A/B , ASME B16.5-150#-RF</t>
+  </si>
+  <si>
+    <t>SOV-GG48.1</t>
+  </si>
+  <si>
+    <t>فیلتر ورودی گاز نچرال SR-G11.2</t>
+  </si>
+  <si>
+    <t>Natural Gas Inlet Filter SR-G11.2</t>
+  </si>
+  <si>
+    <t>ZS-G48.1A/B , ASME B16.5-150#-RF</t>
+  </si>
+  <si>
+    <t>SOV-GG48.2</t>
+  </si>
+  <si>
+    <t>400-NG-02715-C6</t>
+  </si>
+  <si>
+    <t>ZS-G48.2A/B , ASME B16.5-150#-RF</t>
+  </si>
+  <si>
+    <t>SOV-GG49.1</t>
+  </si>
+  <si>
+    <t>فیلتر گاز نچرال</t>
+  </si>
+  <si>
+    <t>NATURAL GAS FILTER</t>
+  </si>
+  <si>
+    <t>400-NG-02706-C6</t>
+  </si>
+  <si>
+    <t>Wafer, ANSI 150#</t>
+  </si>
+  <si>
+    <t>ZS-G49.1B, ASME B16.5-150#-RF</t>
+  </si>
+  <si>
+    <t>SOV-GG49.2</t>
+  </si>
+  <si>
+    <t>400-NG-02707-C6</t>
+  </si>
+  <si>
+    <t>ZS-G49.2B, ASME B16.5-150#-RF</t>
+  </si>
+  <si>
+    <t>PCV-AB19</t>
+  </si>
+  <si>
+    <t>گاز نچرال به اتاق مکانیکی (Mechanical Room)</t>
+  </si>
+  <si>
+    <t>NATURAL GAS TO MECHANICAL ROOM</t>
+  </si>
+  <si>
+    <t>50-NG-02822-C6</t>
+  </si>
+  <si>
+    <t>EXTERNAL</t>
+  </si>
+  <si>
+    <t>PRV-AG47.1</t>
+  </si>
+  <si>
+    <t>گاز نچرال بعد از فیلتر گاز نچرال</t>
+  </si>
+  <si>
+    <t>NATURAL GAZ AFTER NATURAL GAS FILTER</t>
+  </si>
+  <si>
+    <t>400-NG-02718-A-C6</t>
+  </si>
+  <si>
+    <t>PRV-AD27</t>
+  </si>
+  <si>
+    <t>گاز Purge به سیستم توزیع ایمپالس (Impulse Distribution)</t>
+  </si>
+  <si>
+    <t>Purge Gas to Impulse Distribution</t>
+  </si>
+  <si>
+    <t>25-IP-07204-C6</t>
+  </si>
+  <si>
+    <t>PRV-AD34.2</t>
+  </si>
+  <si>
+    <t>کنترل فشار توزیع سریع گاز Purge</t>
+  </si>
+  <si>
+    <t>Rapid PG Distribution Pressure Control</t>
+  </si>
+  <si>
+    <t>50-PG-07435-C6</t>
+  </si>
+  <si>
+    <t>PRV-AG47.3</t>
+  </si>
+  <si>
+    <t>050-NG-02719-A-C6</t>
+  </si>
+  <si>
+    <t>AV-AA81</t>
+  </si>
+  <si>
+    <t>گاز خوراک ریفورمر</t>
+  </si>
+  <si>
+    <t>Reformer feed gas</t>
+  </si>
+  <si>
+    <t>500-RF-01308-C8</t>
+  </si>
+  <si>
+    <t>F.O. MIN STOP</t>
+  </si>
+  <si>
+    <t>20"</t>
+  </si>
+  <si>
+    <t>LUG , ANSI 150</t>
+  </si>
+  <si>
+    <t>AV-AD18</t>
+  </si>
+  <si>
+    <t>جریان هوای افتر برنر</t>
+  </si>
+  <si>
+    <t>After Burner Air Flow</t>
+  </si>
+  <si>
+    <t>250-AA-03008-C4</t>
+  </si>
+  <si>
+    <t>AV-AE47.1</t>
+  </si>
+  <si>
+    <t>آب فرآیندی به سیستم تخلیه (Blowdown)</t>
+  </si>
+  <si>
+    <t>PROCESS WATER TO BLOW DOWN</t>
+  </si>
+  <si>
+    <t>83-1</t>
+  </si>
+  <si>
+    <t>150-PWR-08314-C1</t>
+  </si>
+  <si>
+    <t>DIAPHRAGM</t>
+  </si>
+  <si>
+    <t>AV-AE47.2</t>
+  </si>
+  <si>
+    <t>تخلیه (Blowdown) به مخزن TK-XE41 (آب فرآیندی PSW)</t>
+  </si>
+  <si>
+    <t>BLOW DOWN TO TK-XE41(PSW)</t>
+  </si>
+  <si>
+    <t>80-PWR-08318-C1</t>
+  </si>
+  <si>
+    <t>FV-AA20.1</t>
+  </si>
+  <si>
+    <t>غرب میکسر باستل  BLEED</t>
+  </si>
+  <si>
+    <t>گاز کولینگ(بلید) به ریفورمد گس میکسر</t>
+  </si>
+  <si>
+    <t>COOLING GAS (Bleed) TO REFORMED GAS MIXER</t>
+  </si>
+  <si>
+    <t>62-2</t>
+  </si>
+  <si>
+    <t>250-CG-06215-C2</t>
+  </si>
+  <si>
+    <t>FV-AA22</t>
+  </si>
+  <si>
+    <t>شمال شرق پایپرک غرب مخزن های 14 باری FGM</t>
+  </si>
+  <si>
+    <t>500-NG-02808-C6</t>
+  </si>
+  <si>
+    <t>SOL-A22</t>
+  </si>
+  <si>
+    <t>FV-AA56</t>
+  </si>
+  <si>
+    <t>غرب میکسر باستل ALTERNATIVE</t>
+  </si>
+  <si>
+    <t>گازپروسس (آلترناتیو) به ریفورمد گس میکسر</t>
+  </si>
+  <si>
+    <t>Process Gas(ALTERNATIVE) to Bustle Gas</t>
+  </si>
+  <si>
+    <t>500-PRG-01018-C8</t>
+  </si>
+  <si>
+    <t>ZS-A56B</t>
+  </si>
+  <si>
+    <t>FV-AA58</t>
+  </si>
+  <si>
+    <t>تراز 35 متر بین طبقه 4 و 5 شمال نوار سایدوال</t>
+  </si>
+  <si>
+    <t>گاز فرآیندی (فورسد کولینگ) به نازل‌های خنک‌سازی اجباری</t>
+  </si>
+  <si>
+    <t>Process Gas to Forced Cooling Nozzles</t>
+  </si>
+  <si>
+    <t>600-PRG-01001-C8</t>
+  </si>
+  <si>
+    <t>ZS-A58B</t>
+  </si>
+  <si>
+    <t>FV-AA59</t>
+  </si>
+  <si>
+    <t>طبقه 3 بالای LBF  پروداکت</t>
+  </si>
+  <si>
+    <t>گاز نچرال به پایین پروداکت کولر</t>
+  </si>
+  <si>
+    <t>Natural Gas to Product Cooler</t>
+  </si>
+  <si>
+    <t>100-NG-02814-C3</t>
+  </si>
+  <si>
+    <t>FV-AA72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبقه دوم تراز 15متر شمال شرق کوره (مسیر NG قبل از نم گیر کولینگ) </t>
+  </si>
+  <si>
+    <t>گاز نچرال به گاز کولینک قبل از ورود به پروداکت کولر</t>
+  </si>
+  <si>
+    <t>Natural Gas Product Cooler Bustle</t>
+  </si>
+  <si>
+    <t>250-NG-02801-C6</t>
+  </si>
+  <si>
+    <t>SOL-A72 &amp; ZS-A72B</t>
+  </si>
+  <si>
+    <t>FV-AA80</t>
+  </si>
+  <si>
+    <t>طبقه 4 تراز 26 شرق پروداکت کولر</t>
+  </si>
+  <si>
+    <t>گاز کولینگ به پروداکت کولر</t>
+  </si>
+  <si>
+    <t>Cooling Gas to Product Cooler</t>
+  </si>
+  <si>
+    <t>250-CG-05405-C2</t>
+  </si>
+  <si>
+    <t>FV-AA82.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبقه 9 تراز 56 جنوب کوره </t>
+  </si>
+  <si>
+    <t>گاز طبیعی ناحیه انتقال (سمت جنوبی)</t>
+  </si>
+  <si>
+    <t>Transition Zone Natural Gas (South Side)</t>
+  </si>
+  <si>
+    <t>150-NG-01501-C11</t>
+  </si>
+  <si>
+    <t>ZS-A82.1B</t>
+  </si>
+  <si>
+    <t>FV-AA82.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبقه 9 تراز 56 جنوب شرق کوره </t>
+  </si>
+  <si>
+    <t>گاز طبیعی ناحیه انتقال (سمت شرقی)</t>
+  </si>
+  <si>
+    <t>Transition Zone Natural Gas (East Side)</t>
+  </si>
+  <si>
+    <t>FV-AA82.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبقه 9 تراز 56 شمال کوره </t>
+  </si>
+  <si>
+    <t>گاز طبیعی ناحیه انتقال (سمت شمالی)</t>
+  </si>
+  <si>
+    <t>Transition Zone Natural Gas (North Side)</t>
+  </si>
+  <si>
+    <t>FV-AA82.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبقه 9 تراز 56 شمال غرب کوره </t>
+  </si>
+  <si>
+    <t>گاز طبیعی ناحیه انتقال (سمت غربی)</t>
+  </si>
+  <si>
+    <t>Transition Zone Natural Gas (West Side)</t>
+  </si>
+  <si>
+    <t>FV-AB06.1</t>
+  </si>
+  <si>
+    <t>گاز طبیعی به میکسر گاز فیول</t>
+  </si>
+  <si>
+    <t>Natural Gas to Fuel Gas Mixer</t>
+  </si>
+  <si>
+    <t>ZS-B06.1B</t>
+  </si>
+  <si>
+    <t>FV-AB07</t>
+  </si>
+  <si>
+    <t>جریان هوای اصلی به رکوپراتور ها</t>
+  </si>
+  <si>
+    <t>Main Air to Preheaters</t>
+  </si>
+  <si>
+    <t>2000-CA-03001-C4</t>
+  </si>
+  <si>
+    <t>A395</t>
+  </si>
+  <si>
+    <t>78"</t>
+  </si>
+  <si>
+    <t>U SHAPE, ANSI150#</t>
+  </si>
+  <si>
+    <t>ZS-B07B, ACTUATOR ACTION HAS BEEN CHANGED</t>
+  </si>
+  <si>
+    <t>FV-AB07.1</t>
+  </si>
+  <si>
+    <t>جریان هوای اصلی به رکوپراتور ها برای سوخت مشعل های اصلی</t>
+  </si>
+  <si>
+    <t>Main Air Flow (fuel Gas)</t>
+  </si>
+  <si>
+    <t>400-CA-03020-C4</t>
+  </si>
+  <si>
+    <t>ZS-B07.1B, ACTUATOR ACTION HAS BEEN CHANGED</t>
+  </si>
+  <si>
+    <t>FV-AB11</t>
+  </si>
+  <si>
+    <t>گاز نچرال به مشعل های فرعی ریفرمر</t>
+  </si>
+  <si>
+    <t>Natural Gas to Auxiliray Burners</t>
+  </si>
+  <si>
+    <t>5"</t>
+  </si>
+  <si>
+    <t>ZS-B11A/B</t>
+  </si>
+  <si>
+    <t>FV-AD08</t>
+  </si>
+  <si>
+    <t>طیقه 8 تراز 50 شمال شرق کوره، شمال گلوگاه tgs</t>
+  </si>
+  <si>
+    <t>گاز سیل (تر)</t>
+  </si>
+  <si>
+    <t>WET SEAL GAS</t>
+  </si>
+  <si>
+    <t>250-SG-06707-C6</t>
+  </si>
+  <si>
+    <t>ZS-D08B</t>
+  </si>
+  <si>
+    <t>FV-AE09</t>
+  </si>
+  <si>
+    <t>نیم طبقه بین طبقه 7و8 تراز 46 متر جنوب شرق کوره، جنوب اسکرابر تاپ</t>
+  </si>
+  <si>
+    <t>تأمین آب فرآیندی سرد (PWS)</t>
+  </si>
+  <si>
+    <t>COLD PROCESS WATER SUPPLY (PWS)</t>
+  </si>
+  <si>
+    <t>400-PWS-08403-C1</t>
+  </si>
+  <si>
+    <t>FV-AE13</t>
+  </si>
+  <si>
+    <t>طبقه 8 تراز 50 شرق کوره، جنوب گلوگاه TGS</t>
+  </si>
+  <si>
+    <t>تأمین آب فرآیندی گرم</t>
+  </si>
+  <si>
+    <t>HOT PROCESS WATER SUPPLY</t>
+  </si>
+  <si>
+    <t>250-PWS-00415-C1</t>
+  </si>
+  <si>
+    <t>FV-AE14</t>
+  </si>
+  <si>
+    <t>طبقه 8 تراز 50 شرق کوره، غرب گلوگاه TGS</t>
+  </si>
+  <si>
+    <t>پمپ تقویتی اسکرابر ونچوری (آب فرآیندی PWS)</t>
+  </si>
+  <si>
+    <t>SCRUBBER VENTURI BOOSTER PUMP (PWS)</t>
+  </si>
+  <si>
+    <t>250-PWS-08407-C1</t>
+  </si>
+  <si>
+    <t>FV-AE16</t>
+  </si>
+  <si>
+    <t>طبقه 7 تراز 44 شمال TGS</t>
+  </si>
+  <si>
+    <t>تأمین آب فرآیندی سرد</t>
+  </si>
+  <si>
+    <t>450-PWS-08402-C1</t>
+  </si>
+  <si>
+    <t>FV-AE17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بین طبقه 4 و 5 تراز 34 متر </t>
+  </si>
+  <si>
+    <t>جریان چرخشی ونتوری اسکرابر گاز خنک‌کننده</t>
+  </si>
+  <si>
+    <t>Cooling Gas Scrubber Venturi Swirl</t>
+  </si>
+  <si>
+    <t>150-PWS-08411-C1</t>
+  </si>
+  <si>
+    <t>FV-AE19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تراز 35 متر بین طبقه 4 و 5 شمال لگ میانی </t>
+  </si>
+  <si>
+    <t>گلوگاه ونتوری اسکرابر گاز خنک‌کننده</t>
+  </si>
+  <si>
+    <t>Cooling Gas Scrubber Venturi Throat</t>
+  </si>
+  <si>
+    <t>150-PWS-08412-C1</t>
+  </si>
+  <si>
+    <t>FV-AE24</t>
+  </si>
+  <si>
+    <t>جریان آب چرخشی اسکرابر جمع‌آوری گرد و غبار کوره (داست کالکشن)</t>
+  </si>
+  <si>
+    <t>PWS Furnace Dust Collection Scrubber Swirl Water Flow</t>
+  </si>
+  <si>
+    <t>80-PWS-10103-C1</t>
+  </si>
+  <si>
+    <t>FV-AE28</t>
+  </si>
+  <si>
+    <t>مخلوط‌سازی پوشش اکسیدی(شیرآهک) از طریق TK-AF63</t>
+  </si>
+  <si>
+    <t>Oxide Coating Blending Through TK-AF63</t>
+  </si>
+  <si>
+    <t>50-PWS-13503-C1</t>
+  </si>
+  <si>
+    <t>2"</t>
+  </si>
+  <si>
+    <t>Flanged ANSI150#</t>
+  </si>
+  <si>
+    <t>SOL-E28, ZS-E28B</t>
+  </si>
+  <si>
+    <t>FV-AE29</t>
+  </si>
+  <si>
+    <t>غرب لاین ورودی ریفرمر گس کولر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> آب فرآیندی به ریفرمدگس کولر</t>
+  </si>
+  <si>
+    <t>Process Water to Reformed Gas Cooler</t>
+  </si>
+  <si>
+    <t>300-PWS-01906-C1</t>
+  </si>
+  <si>
+    <t>FV-AE37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> آب فرآیندی به گلوگاه اسکرابر جمع‌آوری گرد و غبار BSG، واحد SR-D46</t>
+  </si>
+  <si>
+    <t>PWS TO BSG Dust Collection SR-D46 Scrubber Throat</t>
+  </si>
+  <si>
+    <t>80-PWS-10403-C1</t>
+  </si>
+  <si>
+    <t>FV-AE38</t>
+  </si>
+  <si>
+    <t>آب فرآیندی به جریان چرخشی اسکرابر گرد و غبار BSG، واحد SR-D46</t>
+  </si>
+  <si>
+    <t>PWSTO BSG Dust Collection SR-D46 Scrubber Swirl</t>
+  </si>
+  <si>
+    <t>80-PWS-10402-C1</t>
+  </si>
+  <si>
+    <t>FV-AE40</t>
+  </si>
+  <si>
+    <t>آب اسکرابر جمع‌آوری گرد و غبار کوره (داست کالکشن)</t>
+  </si>
+  <si>
+    <t>PWS Furnace Dust Collection Scrubber Water</t>
+  </si>
+  <si>
+    <t>80-PWS-10102-C1</t>
+  </si>
+  <si>
+    <t>FV-AE49</t>
+  </si>
+  <si>
+    <t>جنوب ریفرمر، شرق داکت سیل گس</t>
+  </si>
+  <si>
+    <t>آب فرآیندی سرد به سیل گس کولر</t>
+  </si>
+  <si>
+    <t>Cold Process Water to Seal Gas Cooler</t>
+  </si>
+  <si>
+    <t>250-PWS-08415-C1</t>
+  </si>
+  <si>
+    <t>FV-AE60</t>
+  </si>
+  <si>
+    <t>طبقه 5 تراز 37 متر شمال کوره بالای CGS</t>
+  </si>
+  <si>
+    <t>آب فرآیندی سرد به پکینگ اسکرابر کولینگ</t>
+  </si>
+  <si>
+    <t>Cold Process Water to CG Scrubber packing</t>
+  </si>
+  <si>
+    <t>400-PWS-08413-C1</t>
+  </si>
+  <si>
+    <t>FV-AE72</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> آب خنک‌کن به کولینگ گس افتر کولر</t>
+  </si>
+  <si>
+    <t>COOLING WATER TO COOLING GAS AFTERCOOLER</t>
+  </si>
+  <si>
+    <t>62-3</t>
+  </si>
+  <si>
+    <t>200-PWS-08470-C1</t>
+  </si>
+  <si>
+    <t>FV-AM06</t>
+  </si>
+  <si>
+    <t>طبقه 7 تراز 44 متر جنوب کوره بالای TGS</t>
+  </si>
+  <si>
+    <t>آب ماشینری به LBF کوره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURDENFEEDER RECIRCULATION PUMPS PU-M03.1 &amp; 2
+</t>
+  </si>
+  <si>
+    <t>50-MWS-00306-C1</t>
+  </si>
+  <si>
+    <t>F.O, MIN FLOW STOP</t>
+  </si>
+  <si>
+    <t>FV-AM15</t>
+  </si>
+  <si>
+    <t>طبقه 8 تراز 50 شرق کوره(شرق UBF)</t>
+  </si>
+  <si>
+    <t>آب ماشینری به MBF کوره</t>
+  </si>
+  <si>
+    <t>150-MWS-00211-C1</t>
+  </si>
+  <si>
+    <t>FV-AM35</t>
+  </si>
+  <si>
+    <t>آب خنک‌کن به PDC TK-H15.3</t>
+  </si>
+  <si>
+    <t>Cooling Water to PDC TK-H15.3</t>
+  </si>
+  <si>
+    <t>100-MWS-00212-C1</t>
+  </si>
+  <si>
+    <t>HV-AA23</t>
+  </si>
+  <si>
+    <t>غرب مخزن های 14 باری</t>
+  </si>
+  <si>
+    <t>جریان گاز فرآیندی (بلاک ولو)</t>
+  </si>
+  <si>
+    <t>Process Gas Flow (Block Valve)</t>
+  </si>
+  <si>
+    <t>1600-PRG-01002-C8</t>
+  </si>
+  <si>
+    <t>60"</t>
+  </si>
+  <si>
+    <t>ZS-A23B</t>
+  </si>
+  <si>
+    <t>HV-AA71</t>
+  </si>
+  <si>
+    <t>طبقه دوم تراز 15 متر شمال شرق کوره</t>
+  </si>
+  <si>
+    <t>بلاک ولو کولینگ</t>
+  </si>
+  <si>
+    <t>Cooling Gas Block Valve</t>
+  </si>
+  <si>
+    <t>1100-CG-06404-C2</t>
+  </si>
+  <si>
+    <t>30"</t>
+  </si>
+  <si>
+    <t>ZS-A71A</t>
+  </si>
+  <si>
+    <t>HV-AD04</t>
+  </si>
+  <si>
+    <t>طبقه اول کوره شمال کورره تراز 8</t>
+  </si>
+  <si>
+    <t>ولو دیس شارژ یا تقسیم کننده گاز سیل</t>
+  </si>
+  <si>
+    <t>Seal Gas After Cooler Discharge (Block Valve)</t>
+  </si>
+  <si>
+    <t>400-SG-06700-C6</t>
+  </si>
+  <si>
+    <t>ZS-D04A/B</t>
+  </si>
+  <si>
+    <t>HV-AD21</t>
+  </si>
+  <si>
+    <t>طبقه اول کوره شمال کوره تراز 8</t>
+  </si>
+  <si>
+    <t>ونت گاز سیل(تر)</t>
+  </si>
+  <si>
+    <t>Wet Seal Gas Vent</t>
+  </si>
+  <si>
+    <t>200-SG-06706-C6</t>
+  </si>
+  <si>
+    <t>ZS-D21A/B</t>
+  </si>
+  <si>
+    <t>HV-AE08</t>
+  </si>
+  <si>
+    <t>طبقه 4 تراز 26 متر جنوب شرق کوره</t>
+  </si>
+  <si>
+    <t>400-PWS-08404-C1</t>
+  </si>
+  <si>
+    <t>HV-AH15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> نازل جمع‌آوری گرد و غبار BSG (PP-D43)</t>
+  </si>
+  <si>
+    <t>BSG Dust Collection Nazzle PP-D43</t>
+  </si>
+  <si>
+    <t>ZS-H15A/B</t>
+  </si>
+  <si>
+    <t>LV-AE41</t>
+  </si>
+  <si>
+    <t>کنترل سطح سامپ جمع‌آوری گرد و غبار(داست کالکشن) کوره</t>
+  </si>
+  <si>
+    <t>Furnace Dust Collection Sump Level Control</t>
+  </si>
+  <si>
+    <t>40-PWS-10105-C1</t>
+  </si>
+  <si>
+    <t>LV-AE54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> آب فرآیندی گرم به سامپ جمع‌آوری گرد و غبار(داست کالکشن) BSG، واحد SR-D46</t>
+  </si>
+  <si>
+    <t>Hot Process Water to BSG Dust Collection SR-D46 Sump</t>
+  </si>
+  <si>
+    <t>40-PWS-10405-C1</t>
+  </si>
+  <si>
+    <t>LV-AE63</t>
+  </si>
+  <si>
+    <t>ولو برگشتی از خروجی پمپ های PU-E11.1,2  به سمت مخزن TK-E10</t>
+  </si>
+  <si>
+    <t>PWS Blower Area Sump Pump Discharge to Clarifier</t>
+  </si>
+  <si>
+    <t>50-PWR-08804-C1</t>
+  </si>
+  <si>
+    <t>LV-GE55</t>
+  </si>
+  <si>
+    <t>آب فرآیندی به سامپ سیستم غبارزدایی سیلوی محصول TK-E24</t>
+  </si>
+  <si>
+    <t>PWS TO product silo dedusting SYSTEM SUMP TK-E24</t>
+  </si>
+  <si>
+    <t>50-PWS-10218-C1</t>
+  </si>
+  <si>
+    <t>PDV-AD43</t>
+  </si>
+  <si>
+    <t>طبقه 12 تراز 76، گاز سیل کلکتور آب بندی بالا</t>
+  </si>
+  <si>
+    <t>گاز آب‌بندی مرطوب</t>
+  </si>
+  <si>
+    <t>250-SG-06709-C6</t>
+  </si>
+  <si>
+    <t>PDV-AD44</t>
+  </si>
+  <si>
+    <t>طبقه اول ورودی کلکتور آب بندی تراز 8</t>
+  </si>
+  <si>
+    <t>گاز به به نم گیر گاز سیل پایین پروداکت کولر</t>
+  </si>
+  <si>
+    <t>Seal Gas to Prod Clr Btm Seal Mist Eliminator</t>
+  </si>
+  <si>
+    <t>200-SG-05419-C3</t>
+  </si>
+  <si>
+    <t>ACTUATOR ACTION HAS BEEN CHANGED</t>
+  </si>
+  <si>
+    <t>PDV-AD54</t>
+  </si>
+  <si>
+    <t>تراز 37 متر بالای LBF  کوره</t>
+  </si>
+  <si>
+    <t>گاز سیل خشک</t>
+  </si>
+  <si>
+    <t>200-SG-06903-C6</t>
+  </si>
+  <si>
+    <t>PV-AA85</t>
+  </si>
+  <si>
+    <t>شمال شرق پایپرک غرب مخزن های 14 باری</t>
+  </si>
+  <si>
+    <t>PV-AB02.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ونت هوای فن اصلی</t>
+  </si>
+  <si>
+    <t>Main Air Vent</t>
+  </si>
+  <si>
+    <t>800-CA-03004-C4</t>
+  </si>
+  <si>
+    <t>ZS-B02.2A/B</t>
+  </si>
+  <si>
+    <t>PV-AB08.1</t>
+  </si>
+  <si>
+    <t>طبقه اول تراز 8 متر (لاین بزرگ)</t>
+  </si>
+  <si>
+    <t>کنترل فشار گاز سوخت (فیول)</t>
+  </si>
+  <si>
+    <t>Top Gas Fuel Pressure Control</t>
+  </si>
+  <si>
+    <t>1200-TGF-00402-C2</t>
+  </si>
+  <si>
+    <t>ZS-B08.1B</t>
+  </si>
+  <si>
+    <t>PV-AB08.2</t>
+  </si>
+  <si>
+    <t>طبقه اول (لاین کوچک-بای پس)</t>
+  </si>
+  <si>
+    <t>کنترل دقیق فشار گاز سوخت (فیول)</t>
+  </si>
+  <si>
+    <t>Trim Top Gas Fuel Pressure Control</t>
+  </si>
+  <si>
+    <t>350-TGF-03306-C2</t>
+  </si>
+  <si>
+    <t>ZS-B08.2B</t>
+  </si>
+  <si>
+    <t>PV-AB17</t>
+  </si>
+  <si>
+    <t>گاز نچرال به مشعل‌های کمکی</t>
+  </si>
+  <si>
+    <t>300-NG-02811-C6</t>
+  </si>
+  <si>
+    <t>PV-AB27</t>
+  </si>
+  <si>
+    <t>گاز نچرال به مشعل های کمکی و افتر برنر</t>
+  </si>
+  <si>
+    <t>N.G. to Aux. Burners and S.G. After Burner</t>
+  </si>
+  <si>
+    <t>PV-AB70.1</t>
+  </si>
+  <si>
+    <t>گاز فیول از تاپ گس فیول(1/3)کلد فلر</t>
+  </si>
+  <si>
+    <t>TOP GAS FUEL FROM TOP GAS SCRUBBER</t>
+  </si>
+  <si>
+    <t>250-TGF-00202-C2</t>
+  </si>
+  <si>
+    <t>ZS-B70.1A/B</t>
+  </si>
+  <si>
+    <t>PV-AB70.2</t>
+  </si>
+  <si>
+    <t>700-TGF-00401-C2</t>
+  </si>
+  <si>
+    <t>ZS-B70.2A/B</t>
+  </si>
+  <si>
+    <t>PV-AD15</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ریسایکل یا آنتی سرج کمپرسور سیل</t>
+  </si>
+  <si>
+    <t>Seal Gas Compressor Recycle</t>
+  </si>
+  <si>
+    <t>300-SG-06703-C6</t>
+  </si>
+  <si>
+    <t>SOL-D15/ZS-D15A</t>
+  </si>
+  <si>
+    <t>PV-AD91</t>
+  </si>
+  <si>
+    <t>طیقه 4 تراز 26 متر غرب CGS</t>
+  </si>
+  <si>
+    <t>گاز Purge به مصرف‌کنندگان گاز آب‌بندی خشک</t>
+  </si>
+  <si>
+    <t>Purge Gas to Dry Seal Gas Users</t>
+  </si>
+  <si>
+    <t>80-PG-07202-C6</t>
+  </si>
+  <si>
+    <t>ZS-D91B</t>
+  </si>
+  <si>
+    <t>PV-AP14</t>
+  </si>
+  <si>
+    <t>طیقه 4 تراز 26 متر جنوب کوره</t>
+  </si>
+  <si>
+    <t>گاز آب‌بندی خشک به PDC TK-H15.1</t>
+  </si>
+  <si>
+    <t>Dry Seal Gas to PDC TK-H15.1</t>
+  </si>
+  <si>
+    <t>50-SG-06909-C6</t>
+  </si>
+  <si>
+    <t>TV-AA34</t>
+  </si>
+  <si>
+    <t>لاین خروجی ریفرمد گس غرب داکت ریفرمد گس</t>
+  </si>
+  <si>
+    <t>دیس شارژ ریفرمد گس کولر</t>
+  </si>
+  <si>
+    <t>Reformed Gas Cooler Discharge</t>
+  </si>
+  <si>
+    <t>750-RG-01903-C2</t>
+  </si>
+  <si>
+    <t>ZS-A34B</t>
+  </si>
+  <si>
+    <t>TV-AB22</t>
+  </si>
+  <si>
+    <t>هوای مشعل های کمکی</t>
+  </si>
+  <si>
+    <t>Auxiliary Burner Air</t>
+  </si>
+  <si>
+    <t>900-AA-03009-C4</t>
+  </si>
+  <si>
+    <t>ZS-B22B</t>
+  </si>
+  <si>
+    <t>TV-AB36.1</t>
+  </si>
+  <si>
+    <t>مسیر بای-پس استیج های هوای ریکوپراتور</t>
+  </si>
+  <si>
+    <t>Cold Combustion Air Preheater Bypass</t>
+  </si>
+  <si>
+    <t>900-CA-03003-C4</t>
+  </si>
+  <si>
+    <t>ZS-B36.1B</t>
+  </si>
+  <si>
+    <t>TV-AB36.2</t>
+  </si>
+  <si>
+    <t>900-CA-03006-C4</t>
+  </si>
+  <si>
+    <t>A126 GG26</t>
+  </si>
+  <si>
+    <t>ZS-B36.2B</t>
+  </si>
+  <si>
+    <t>TV-AC02.1</t>
+  </si>
+  <si>
+    <t>هوای دایلوشن به فلوگس میکسر (خروجی ریفرمر به رکوپراتور</t>
+  </si>
+  <si>
+    <t>Dilution Air to Flue Gas Mixer (C20.1)</t>
+  </si>
+  <si>
+    <t>750-DA-03017-C4</t>
+  </si>
+  <si>
+    <t>ZS-C02.1A</t>
+  </si>
+  <si>
+    <t>TV-AC02.2</t>
+  </si>
+  <si>
+    <t>Dilution Air to Flue Gas Mixer (C20.2)</t>
+  </si>
+  <si>
+    <t>750-DA-03018-C4</t>
+  </si>
+  <si>
+    <t>ZS-C02.2A</t>
+  </si>
+  <si>
+    <t>TV-AE02.1</t>
+  </si>
+  <si>
+    <t>طیقه 7 تراز 44 جنوب اسکرابر تاپ</t>
+  </si>
+  <si>
+    <t>450-PWS-08503-C1</t>
+  </si>
+  <si>
+    <t>TV-AE02.2</t>
+  </si>
+  <si>
+    <t>طبفه 8 تراز 50 جنوب شرق کوره جنوب گلوگاه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تأمین آب فرآیندی سرد</t>
+  </si>
+  <si>
+    <t>TV-AM11</t>
+  </si>
+  <si>
+    <t>طبقه 10 شمال لاین تاپ گس</t>
+  </si>
+  <si>
+    <t>تأمین آب خنک‌کن ماشین‌آلات</t>
+  </si>
+  <si>
+    <t>MACHINERY COOLING WATER SUPPLY</t>
+  </si>
+  <si>
+    <t>200-MWS-09601-C1</t>
   </si>
 </sst>
 </file>
@@ -316,10 +2120,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -334,33 +2166,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,162 +2452,2589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>69</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8">
         <v>300</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>15</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>74</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>80</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>45</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>1.2</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="8">
+        <v>250</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="8">
+        <v>70</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="8">
+        <v>61</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8">
+        <v>250</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="8">
+        <v>70</v>
+      </c>
+      <c r="O5" s="8">
+        <v>3</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="8">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="8">
+        <v>80</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="8">
+        <v>15</v>
+      </c>
+      <c r="O6" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="8">
+        <v>350</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="8">
+        <v>425</v>
+      </c>
+      <c r="O7" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="8">
+        <v>400</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="8">
+        <v>35</v>
+      </c>
+      <c r="O8" s="8">
+        <v>6</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="8">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="8">
+        <v>80</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="8">
+        <v>35</v>
+      </c>
+      <c r="O9" s="8">
+        <v>6</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="8">
+        <v>400</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="8">
+        <v>35</v>
+      </c>
+      <c r="O10" s="8">
+        <v>6</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="8">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="8">
+        <v>15</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="8">
+        <v>35</v>
+      </c>
+      <c r="O11" s="8">
+        <v>6</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="8">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="8">
+        <v>300</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="8">
+        <v>80</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="8">
+        <v>33</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="8">
+        <v>300</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="8">
+        <v>35</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="8">
+        <v>33</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="8">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="8">
+        <v>35</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="8">
+        <v>32</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="8">
+        <v>200</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="8">
+        <v>35</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="8">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="8">
+        <v>40</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="8">
+        <v>35</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="8">
+        <v>32</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="8">
+        <v>200</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="8">
+        <v>35</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="8">
+        <v>32</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="8">
+        <v>15</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="8">
+        <v>35</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="8">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="8">
+        <v>900</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="8">
+        <v>30</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="8">
+        <v>900</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N21" s="8">
+        <v>69</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="8">
+        <v>74</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="8">
+        <v>80</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="8">
+        <v>45</v>
+      </c>
+      <c r="O22" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="8">
+        <v>65</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="8">
+        <v>150</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" s="8">
+        <v>35</v>
+      </c>
+      <c r="O23" s="8">
+        <v>1</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="8">
+        <v>69</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="8">
+        <v>80</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="8">
+        <v>15</v>
+      </c>
+      <c r="O24" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="8">
+        <v>6</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="8">
+        <v>100</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="8">
+        <v>15</v>
+      </c>
+      <c r="O25" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="8">
+        <v>25</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="8">
+        <v>15</v>
+      </c>
+      <c r="O26" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="8">
+        <v>40</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" s="8">
+        <v>70</v>
+      </c>
+      <c r="O27" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="8">
+        <v>200</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="8">
+        <v>31</v>
+      </c>
+      <c r="O28" s="8">
+        <v>2</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="8">
+        <v>81</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="O29" s="8">
+        <v>3</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="8">
+        <v>81</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="O30" s="8">
+        <v>3</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="8">
+        <v>81</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="O31" s="8">
+        <v>3</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="8">
+        <v>81</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N32" s="8">
+        <v>31</v>
+      </c>
+      <c r="O32" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="8">
+        <v>81</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N33" s="8">
+        <v>31</v>
+      </c>
+      <c r="O33" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="8">
+        <v>81</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="8">
+        <v>31</v>
+      </c>
+      <c r="O34" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="8">
+        <v>81</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="O35" s="8">
+        <v>3</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="8">
+        <v>81</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="O36" s="8">
+        <v>3</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="8">
+        <v>81</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="O37" s="8">
+        <v>3</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F38" s="8">
+        <v>81</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="8">
+        <v>31</v>
+      </c>
+      <c r="O38" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="8">
+        <v>81</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N39" s="8">
+        <v>31</v>
+      </c>
+      <c r="O39" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="8">
+        <v>81</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" s="8">
+        <v>31</v>
+      </c>
+      <c r="O40" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="8">
+        <v>81</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N41" s="8">
+        <v>31</v>
+      </c>
+      <c r="O41" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="8">
+        <v>81</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N42" s="8">
+        <v>31</v>
+      </c>
+      <c r="O42" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="8">
+        <v>81</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" s="8">
+        <v>31</v>
+      </c>
+      <c r="O43" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="8">
+        <v>94</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="8">
+        <v>100</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="8">
+        <v>31</v>
+      </c>
+      <c r="O44" s="8">
+        <v>2</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="8">
+        <v>100</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="8">
+        <v>31</v>
+      </c>
+      <c r="O45" s="8">
+        <v>2</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="8">
+        <v>55</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="8">
+        <v>700</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N46" s="8">
+        <v>60</v>
+      </c>
+      <c r="O46" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="8">
+        <v>55</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="8">
+        <v>600</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="N47" s="8">
+        <v>60</v>
+      </c>
+      <c r="O47" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="8">
+        <v>27</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="8">
+        <v>400</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N48" s="8">
+        <v>35</v>
+      </c>
+      <c r="O48" s="8">
+        <v>17</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" s="8">
+        <v>27</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="8">
+        <v>400</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49" s="8">
+        <v>35</v>
+      </c>
+      <c r="O49" s="8">
+        <v>17</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" s="8">
+        <v>27</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="8">
+        <v>400</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N50" s="8">
+        <v>35</v>
+      </c>
+      <c r="O50" s="8">
+        <v>17</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" s="8">
+        <v>27</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="8">
+        <v>400</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N51" s="8">
+        <v>35</v>
+      </c>
+      <c r="O51" s="8">
+        <v>17</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" s="8">
+        <v>27</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="8">
+        <v>400</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N52" s="8">
+        <v>35</v>
+      </c>
+      <c r="O52" s="8">
+        <v>17</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="8">
+        <v>27</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="8">
+        <v>400</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N53" s="8">
+        <v>35</v>
+      </c>
+      <c r="O53" s="8">
+        <v>17</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="8">
+        <v>27</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="8">
+        <v>400</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N54" s="8">
+        <v>35</v>
+      </c>
+      <c r="O54" s="8">
+        <v>17</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -806,88 +5044,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="15">
         <v>74</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="15">
         <v>80</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="16" t="s">
         <v>33</v>
       </c>
@@ -900,7 +5138,7 @@
       <c r="G3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="15" t="s">
         <v>36</v>
       </c>
@@ -911,6 +5149,166 @@
         <v>80</v>
       </c>
       <c r="L3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="15">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="15">
+        <v>50</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="15">
+        <v>27</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="15">
+        <v>400</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="15">
+        <v>74</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="15">
+        <v>25</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="15">
+        <v>74</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="15">
+        <v>50</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="15">
+        <v>27</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="15">
+        <v>50</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -921,113 +5319,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="15">
         <v>28</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="15">
         <v>35</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="15">
         <v>3.1</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>60</v>
       </c>
@@ -1037,13 +5434,13 @@
       <c r="D3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="15">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -1072,6 +5469,3282 @@
       </c>
       <c r="P3" s="15" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="15">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M4" s="15">
+        <v>350</v>
+      </c>
+      <c r="N4" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="15">
+        <v>65</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="15">
+        <v>52</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="15">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="15">
+        <v>60</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="15">
+        <v>110</v>
+      </c>
+      <c r="N8" s="15">
+        <v>2.16</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="15">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="15">
+        <v>35</v>
+      </c>
+      <c r="N9" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="15">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M10" s="15">
+        <v>280</v>
+      </c>
+      <c r="N10" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M11" s="15">
+        <v>280</v>
+      </c>
+      <c r="N11" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F12" s="15">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="15">
+        <v>35</v>
+      </c>
+      <c r="N12" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="15">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="15">
+        <v>35</v>
+      </c>
+      <c r="N13" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="15">
+        <v>54</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="15">
+        <v>55</v>
+      </c>
+      <c r="N14" s="15">
+        <v>2.16</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="15">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="15">
+        <v>400</v>
+      </c>
+      <c r="N15" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" s="15">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="15">
+        <v>400</v>
+      </c>
+      <c r="N16" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="15">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="15">
+        <v>400</v>
+      </c>
+      <c r="N17" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F18" s="15">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="15">
+        <v>400</v>
+      </c>
+      <c r="N18" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="15">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="15">
+        <v>35</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="15">
+        <v>30</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="M20" s="15">
+        <v>69</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="15">
+        <v>30</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="15">
+        <v>69</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" s="15">
+        <v>32</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="M22" s="15">
+        <v>35</v>
+      </c>
+      <c r="N22" s="15">
+        <v>1</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23" s="15">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" s="15">
+        <v>43</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F24" s="15">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="15">
+        <v>31</v>
+      </c>
+      <c r="N24" s="15">
+        <v>1.42</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="15">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M25" s="15">
+        <v>70</v>
+      </c>
+      <c r="N25" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" s="15">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" s="15">
+        <v>31</v>
+      </c>
+      <c r="N26" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="15">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="15">
+        <v>70</v>
+      </c>
+      <c r="N27" s="15">
+        <v>1.24</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F28" s="15">
+        <v>61</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="15">
+        <v>31</v>
+      </c>
+      <c r="N28" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F29" s="15">
+        <v>61</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M29" s="15">
+        <v>31</v>
+      </c>
+      <c r="N29" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F30" s="15">
+        <v>101</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="15">
+        <v>70</v>
+      </c>
+      <c r="N30" s="15">
+        <v>9</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F31" s="15">
+        <v>135</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="M31" s="15">
+        <v>31</v>
+      </c>
+      <c r="N31" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="15">
+        <v>19</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="15">
+        <v>31</v>
+      </c>
+      <c r="N32" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F33" s="15">
+        <v>104</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="15">
+        <v>70</v>
+      </c>
+      <c r="N33" s="15">
+        <v>9</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" s="15">
+        <v>104</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="15">
+        <v>70</v>
+      </c>
+      <c r="N34" s="15">
+        <v>9</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F35" s="15">
+        <v>101</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="15">
+        <v>70</v>
+      </c>
+      <c r="N35" s="15">
+        <v>9</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F36" s="15">
+        <v>65</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M36" s="15">
+        <v>70</v>
+      </c>
+      <c r="N36" s="15">
+        <v>9</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F37" s="15">
+        <v>61</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M37" s="15">
+        <v>31</v>
+      </c>
+      <c r="N37" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M38" s="15">
+        <v>31</v>
+      </c>
+      <c r="N38" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F39" s="15">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="M39" s="15">
+        <v>56</v>
+      </c>
+      <c r="N39" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F40" s="15">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="15">
+        <v>56</v>
+      </c>
+      <c r="N40" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F41" s="15">
+        <v>40</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M41" s="15">
+        <v>56</v>
+      </c>
+      <c r="N41" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F42" s="15">
+        <v>10</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="M42" s="15">
+        <v>280</v>
+      </c>
+      <c r="N42" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F43" s="15">
+        <v>64</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="M43" s="15">
+        <v>55</v>
+      </c>
+      <c r="N43" s="15">
+        <v>2.16</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" s="15">
+        <v>67</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" s="15">
+        <v>43</v>
+      </c>
+      <c r="N44" s="15">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F45" s="15">
+        <v>67</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="15">
+        <v>43</v>
+      </c>
+      <c r="N45" s="15">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="15">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="15">
+        <v>31</v>
+      </c>
+      <c r="N46" s="15">
+        <v>9</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F47" s="15">
+        <v>40</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="15">
+        <v>800</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F48" s="15">
+        <v>101</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M48" s="15">
+        <v>70</v>
+      </c>
+      <c r="N48" s="15">
+        <v>9</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F49" s="15">
+        <v>104</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M49" s="15">
+        <v>70</v>
+      </c>
+      <c r="N49" s="15">
+        <v>9</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F50" s="15">
+        <v>88</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="M50" s="15">
+        <v>80</v>
+      </c>
+      <c r="N50" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F51" s="15">
+        <v>102</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="15">
+        <v>70</v>
+      </c>
+      <c r="N51" s="15">
+        <v>9</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F52" s="15">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="15">
+        <v>43</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F53" s="15">
+        <v>54</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M53" s="15">
+        <v>43</v>
+      </c>
+      <c r="N53" s="15">
+        <v>2.23</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="15">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="15">
+        <v>16.2</v>
+      </c>
+      <c r="N54" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="15">
+        <v>28</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M55" s="15">
+        <v>35</v>
+      </c>
+      <c r="N55" s="15">
+        <v>6</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="F56" s="15">
+        <v>30</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M56" s="15">
+        <v>69</v>
+      </c>
+      <c r="N56" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F57" s="15">
+        <v>33</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M57" s="15">
+        <v>60</v>
+      </c>
+      <c r="N57" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F58" s="15">
+        <v>33</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M58" s="15">
+        <v>60</v>
+      </c>
+      <c r="N58" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F59" s="15">
+        <v>28</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M59" s="15">
+        <v>35</v>
+      </c>
+      <c r="N59" s="15">
+        <v>6</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F60" s="15">
+        <v>32</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="M60" s="15">
+        <v>35</v>
+      </c>
+      <c r="N60" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F61" s="15">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M61" s="15">
+        <v>60</v>
+      </c>
+      <c r="N61" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F62" s="15">
+        <v>2</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M62" s="15">
+        <v>60</v>
+      </c>
+      <c r="N62" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F63" s="15">
+        <v>67</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M63" s="15">
+        <v>43</v>
+      </c>
+      <c r="N63" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F64" s="15">
+        <v>69</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M64" s="15">
+        <v>45</v>
+      </c>
+      <c r="N64" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F65" s="15">
+        <v>40</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M65" s="15">
+        <v>15</v>
+      </c>
+      <c r="N65" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O65" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P65" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F66" s="15">
+        <v>19</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M66" s="15">
+        <v>40</v>
+      </c>
+      <c r="N66" s="15">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F67" s="15">
+        <v>32</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M67" s="15">
+        <v>55</v>
+      </c>
+      <c r="N67" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F68" s="15">
+        <v>11</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M68" s="15">
+        <v>69</v>
+      </c>
+      <c r="N68" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F69" s="15">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M69" s="15">
+        <v>69</v>
+      </c>
+      <c r="N69" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F70" s="15">
+        <v>11</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M70" s="15">
+        <v>65</v>
+      </c>
+      <c r="N70" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F71" s="15">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M71" s="15">
+        <v>65</v>
+      </c>
+      <c r="N71" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O71" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F72" s="15">
+        <v>4</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M72" s="15">
+        <v>70</v>
+      </c>
+      <c r="N72" s="15">
+        <v>9</v>
+      </c>
+      <c r="O72" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="15">
+        <v>4</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M73" s="15">
+        <v>31</v>
+      </c>
+      <c r="N73" s="15">
+        <v>9</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="F74" s="15">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" s="15">
+        <v>34</v>
+      </c>
+      <c r="N74" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="O74" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
